--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3530.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3530.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.279432271263018</v>
+        <v>1.402881622314453</v>
       </c>
       <c r="B1">
-        <v>2.797343752674536</v>
+        <v>1.554775953292847</v>
       </c>
       <c r="C1">
-        <v>2.881180461917413</v>
+        <v>1.625626564025879</v>
       </c>
       <c r="D1">
-        <v>3.010592466826074</v>
+        <v>1.493659853935242</v>
       </c>
       <c r="E1">
-        <v>0.9542379664695686</v>
+        <v>1.245018482208252</v>
       </c>
     </row>
   </sheetData>
